--- a/examples/javascript/forms/SQLiteWithDataGridViewX/SQLiteWithDataGridViewX/Data/Schema.xlsx
+++ b/examples/javascript/forms/SQLiteWithDataGridViewX/SQLiteWithDataGridViewX/Data/Schema.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26835" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26835" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TheGridTable" sheetId="1" r:id="rId1"/>
-    <sheet name="TheGridTableLog" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TheGridTableUpdates" sheetId="2" r:id="rId2"/>
+    <sheet name="TheGridTableView" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>ContentValue</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>ggg</t>
+  </si>
+  <si>
+    <t>ContentChildren as long</t>
+  </si>
+  <si>
+    <t>ContentKey as TheGridTable</t>
   </si>
 </sst>
 </file>
@@ -371,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,24 +414,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -435,12 +445,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>555</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/javascript/forms/SQLiteWithDataGridViewX/SQLiteWithDataGridViewX/Data/Schema.xlsx
+++ b/examples/javascript/forms/SQLiteWithDataGridViewX/SQLiteWithDataGridViewX/Data/Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26835" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TheGridTable" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>ContentValue</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>ContentKey as TheGridTable</t>
+  </si>
+  <si>
+    <t>UpdateCount as long</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,9 +461,10 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -476,8 +480,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>555</v>
       </c>

--- a/examples/javascript/forms/SQLiteWithDataGridViewX/SQLiteWithDataGridViewX/Data/Schema.xlsx
+++ b/examples/javascript/forms/SQLiteWithDataGridViewX/SQLiteWithDataGridViewX/Data/Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>ContentValue</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>UpdateCount as long</t>
+  </si>
+  <si>
+    <t>ParentContentKeyLong as long</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +464,11 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -481,10 +485,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>555</v>
       </c>
